--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17094.29887031176</v>
+        <v>3401765.475192039</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17094.29887031176</v>
+        <v>3401765.475192039</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54549.15807758814</v>
+        <v>3402920.023949125</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54549.15807758814</v>
+        <v>3402920.023949125</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1496131459.319762</v>
+        <v>57858139.98980734</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15006.25844653544</v>
+        <v>1405510.255405182</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28476.88162177828</v>
+        <v>2546062.073315222</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41944.11001115976</v>
+        <v>3686613.891225264</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56052.51825618991</v>
+        <v>4825746.803874654</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70160.92650122003</v>
+        <v>5964879.716524043</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84269.33474625013</v>
+        <v>7104012.629173432</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98377.74299127943</v>
+        <v>8243145.541822903</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112486.1512363088</v>
+        <v>9382278.454472374</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>126594.5594813378</v>
+        <v>10521411.36712189</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>140702.9677263658</v>
+        <v>11660544.2797715</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>154811.375971394</v>
+        <v>12799677.1924211</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>168919.7842164225</v>
+        <v>13938810.10507067</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>183028.1924614498</v>
+        <v>15077943.01772037</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>197136.6007064796</v>
+        <v>16217075.93036981</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>211245.00895151</v>
+        <v>17356208.84301917</v>
       </c>
     </row>
   </sheetData>
@@ -27037,22 +27037,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207.0000000000287</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>5.493985834764317e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
